--- a/practice3-4/Методы.xlsx
+++ b/practice3-4/Методы.xlsx
@@ -441,7 +441,7 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.001504898071289062</v>
       </c>
       <c r="F2">
         <v>0.000762939453125</v>
@@ -458,13 +458,13 @@
         <v>47.12366893119967</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9999997089617095</v>
+        <v>0.0009632153658643006</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -481,7 +481,7 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>0.001000881195068359</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0.004085634900839352</v>
@@ -501,7 +501,7 @@
         <v>51</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.001509189605712891</v>
       </c>
       <c r="F5">
         <v>4.440892098500626E-14</v>
